--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3373104.914459318</v>
+        <v>3372586.621176551</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2098510.838922388</v>
+        <v>2098510.838922387</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839054.1707993039</v>
+        <v>839054.170799304</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>237.5230761662653</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>355.0417234711691</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>116.3621902967423</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>229.2317214236755</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>280.4955203901032</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>105.3209610990333</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>138.9747877159559</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1107,10 +1107,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>253.2209157535392</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>221.5497298007764</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>153.2456760863346</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.1045920014102</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>145.6238767107353</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>128.1198936524527</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603044</v>
@@ -1387,10 +1387,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1435,7 +1435,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>76.59429620826495</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.37898738210742</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>200.5026645740313</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2098,10 +2098,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
         <v>208.3257718879324</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2301,13 +2301,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2335,10 +2335,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2538,13 +2538,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>30.26587136802734</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2563,7 +2563,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>273.4277009884119</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2575,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
         <v>159.2039277954309</v>
@@ -2623,7 +2623,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943208</v>
+        <v>28.67070499943231</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2800,7 +2800,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2809,10 +2809,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>85.10274235939436</v>
+        <v>246.1850975848758</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.593129366202</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3046,10 +3046,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
         <v>208.3257718879324</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E34" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G34" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3249,13 +3249,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="35">
@@ -3559,7 +3559,7 @@
         <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879324</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.752408571747</v>
+        <v>188.909827727137</v>
       </c>
       <c r="C41" t="n">
-        <v>139.213062971494</v>
+        <v>316.5063567995628</v>
       </c>
       <c r="D41" t="n">
-        <v>308.849327812963</v>
+        <v>308.8493278129631</v>
       </c>
       <c r="E41" t="n">
         <v>325.820299952085</v>
@@ -3754,13 +3754,13 @@
         <v>339.9881044027861</v>
       </c>
       <c r="G41" t="n">
-        <v>336.2937382743409</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>248.1048302466383</v>
+        <v>248.1048302466384</v>
       </c>
       <c r="I41" t="n">
-        <v>64.21635605592388</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.11102982582408</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>265.9483515209809</v>
       </c>
       <c r="W41" t="n">
         <v>294.5516549988595</v>
@@ -3808,7 +3808,7 @@
         <v>312.8206893337378</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.7884123060689</v>
+        <v>319.788412306069</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.6185488218523</v>
+        <v>110.6185488218524</v>
       </c>
       <c r="C43" t="n">
-        <v>95.76567707213474</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>81.33939228397446</v>
+        <v>81.33939228397453</v>
       </c>
       <c r="E43" t="n">
-        <v>81.26583433685357</v>
+        <v>81.26583433685364</v>
       </c>
       <c r="F43" t="n">
-        <v>83.01528575662084</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.83412367901305</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>81.18637584558509</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>59.02609142675702</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.92458979121287</v>
+        <v>49.92458979121294</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>128.0505332967402</v>
       </c>
       <c r="T43" t="n">
-        <v>16.01197933512646</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>209.8470141579821</v>
+        <v>42.54283207376786</v>
       </c>
       <c r="V43" t="n">
         <v>190.5821620448481</v>
       </c>
       <c r="W43" t="n">
-        <v>207.7597083655982</v>
+        <v>207.7597083655983</v>
       </c>
       <c r="X43" t="n">
         <v>159.0021293123108</v>
       </c>
       <c r="Y43" t="n">
-        <v>148.1435508889871</v>
+        <v>148.1435508889872</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>323.752408571747</v>
+        <v>175.8351633623682</v>
       </c>
       <c r="C44" t="n">
         <v>316.5063567995628</v>
       </c>
       <c r="D44" t="n">
-        <v>308.849327812963</v>
+        <v>308.8493278129631</v>
       </c>
       <c r="E44" t="n">
         <v>325.820299952085</v>
@@ -3991,13 +3991,13 @@
         <v>339.9881044027861</v>
       </c>
       <c r="G44" t="n">
-        <v>336.2937382743409</v>
+        <v>336.293738274341</v>
       </c>
       <c r="H44" t="n">
-        <v>248.1048302466383</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>64.21635605592388</v>
+        <v>64.21635605592395</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>92.11102982582408</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>180.4578125872115</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>265.9483515209809</v>
       </c>
       <c r="W44" t="n">
         <v>294.5516549988595</v>
@@ -4045,7 +4045,7 @@
         <v>312.8206893337378</v>
       </c>
       <c r="Y44" t="n">
-        <v>142.4951184780003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.6185488218523</v>
+        <v>2.310201269920465</v>
       </c>
       <c r="C46" t="n">
-        <v>95.76567707213474</v>
+        <v>95.76567707213481</v>
       </c>
       <c r="D46" t="n">
-        <v>81.33939228397446</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>81.26583433685357</v>
+        <v>81.26583433685364</v>
       </c>
       <c r="F46" t="n">
-        <v>83.01528575662084</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.83412367901298</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>81.18637584558502</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.02609142675695</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>49.92458979121294</v>
       </c>
       <c r="S46" t="n">
         <v>128.0505332967402</v>
       </c>
       <c r="T46" t="n">
-        <v>160.6244716309123</v>
+        <v>160.6244716309124</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>209.8470141579822</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>190.5821620448481</v>
       </c>
       <c r="W46" t="n">
-        <v>151.4038578157604</v>
+        <v>207.7597083655983</v>
       </c>
       <c r="X46" t="n">
         <v>159.0021293123108</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.1435508889871</v>
+        <v>148.1435508889872</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1965.153759365783</v>
+        <v>600.8019744073591</v>
       </c>
       <c r="C2" t="n">
-        <v>1965.153759365783</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="D2" t="n">
-        <v>1579.712630582451</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4333,10 +4333,10 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>371.4442765563904</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L2" t="n">
-        <v>864.7645682749193</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
         <v>864.7645682749193</v>
@@ -4357,25 +4357,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.64850507718</v>
+        <v>959.4299779135905</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.64850507718</v>
+        <v>600.8019744073591</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>54.70361680265978</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>374.4427628648862</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L3" t="n">
-        <v>858.0088487631995</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1807.384238535059</v>
+        <v>164.8505360578489</v>
       </c>
       <c r="C4" t="n">
-        <v>1807.384238535059</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>1807.384238535059</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>1807.384238535059</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>1650.058303748032</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>1650.058303748032</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2038.931431892307</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>1807.384238535059</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U4" t="n">
-        <v>1807.384238535059</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V4" t="n">
-        <v>1807.384238535059</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W4" t="n">
-        <v>1807.384238535059</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X4" t="n">
-        <v>1807.384238535059</v>
+        <v>387.9625972412056</v>
       </c>
       <c r="Y4" t="n">
-        <v>1807.384238535059</v>
+        <v>164.8505360578489</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1279.953688967018</v>
+        <v>462.464857499824</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.953688967018</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4567,22 +4567,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U5" t="n">
-        <v>1905.389306738351</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V5" t="n">
-        <v>1563.28249744187</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W5" t="n">
-        <v>1279.953688967018</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X5" t="n">
-        <v>1279.953688967018</v>
+        <v>969.3444124021636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1279.953688967018</v>
+        <v>862.9596032112208</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.231189288413</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N6" t="n">
-        <v>2134.729194295015</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2642166768698</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2642166768698</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
         <v>77.69124027544166</v>
@@ -4755,22 +4755,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>622.0429194582225</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y7" t="n">
-        <v>366.2642166768698</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.931053647341</v>
+        <v>1880.414647996123</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.931053647341</v>
+        <v>1487.239146499053</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.931053647341</v>
+        <v>1101.798017715721</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.347528763886</v>
+        <v>878.0104118563509</v>
       </c>
       <c r="F8" t="n">
-        <v>599.4530902938636</v>
+        <v>461.1159733863286</v>
       </c>
       <c r="G8" t="n">
-        <v>186.2903347818668</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="H8" t="n">
-        <v>186.2903347818668</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="I8" t="n">
-        <v>47.95321787433161</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="J8" t="n">
-        <v>47.95321787433161</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="K8" t="n">
-        <v>406.9355739017934</v>
+        <v>406.9355739017935</v>
       </c>
       <c r="L8" t="n">
         <v>900.2558656203223</v>
       </c>
       <c r="M8" t="n">
-        <v>1081.622517055268</v>
+        <v>900.2558656203223</v>
       </c>
       <c r="N8" t="n">
-        <v>1609.43380069273</v>
+        <v>1428.067149257784</v>
       </c>
       <c r="O8" t="n">
-        <v>2049.473401585058</v>
+        <v>1868.106750150113</v>
       </c>
       <c r="P8" t="n">
-        <v>2397.66089371658</v>
+        <v>2216.294242281635</v>
       </c>
       <c r="Q8" t="n">
-        <v>2397.66089371658</v>
+        <v>2397.660893716586</v>
       </c>
       <c r="R8" t="n">
-        <v>2359.667980002102</v>
+        <v>2359.667980002107</v>
       </c>
       <c r="S8" t="n">
-        <v>2204.874367793683</v>
+        <v>2359.667980002107</v>
       </c>
       <c r="T8" t="n">
-        <v>2204.874367793683</v>
+        <v>2136.167377561524</v>
       </c>
       <c r="U8" t="n">
-        <v>2204.874367793683</v>
+        <v>1880.414647996123</v>
       </c>
       <c r="V8" t="n">
-        <v>2204.874367793683</v>
+        <v>1880.414647996123</v>
       </c>
       <c r="W8" t="n">
-        <v>2204.874367793683</v>
+        <v>1880.414647996123</v>
       </c>
       <c r="X8" t="n">
-        <v>1815.42176272674</v>
+        <v>1880.414647996123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.931053647341</v>
+        <v>1880.414647996123</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>847.3192010143625</v>
+        <v>847.3192010143626</v>
       </c>
       <c r="C9" t="n">
-        <v>696.6649705744547</v>
+        <v>696.6649705744549</v>
       </c>
       <c r="D9" t="n">
-        <v>566.5760031959351</v>
+        <v>566.5760031959352</v>
       </c>
       <c r="E9" t="n">
-        <v>430.1295123068228</v>
+        <v>430.1295123068229</v>
       </c>
       <c r="F9" t="n">
         <v>305.6977061899547</v>
       </c>
       <c r="G9" t="n">
-        <v>185.6378882618191</v>
+        <v>185.6378882618192</v>
       </c>
       <c r="H9" t="n">
-        <v>97.34047186242002</v>
+        <v>97.34047186242012</v>
       </c>
       <c r="I9" t="n">
-        <v>47.95321787433161</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="J9" t="n">
-        <v>161.068200094059</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="K9" t="n">
-        <v>480.8073461562855</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="L9" t="n">
-        <v>480.8073461562855</v>
+        <v>531.519303772645</v>
       </c>
       <c r="M9" t="n">
-        <v>1074.228417351139</v>
+        <v>1124.9403749675</v>
       </c>
       <c r="N9" t="n">
-        <v>1667.649488545992</v>
+        <v>1444.147101542589</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.923661295077</v>
+        <v>1960.66738413357</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.923661295077</v>
+        <v>2366.288752849968</v>
       </c>
       <c r="Q9" t="n">
-        <v>2366.288752849967</v>
+        <v>2366.288752849968</v>
       </c>
       <c r="R9" t="n">
         <v>2342.371709748032</v>
@@ -4928,7 +4928,7 @@
         <v>1178.429752379817</v>
       </c>
       <c r="Y9" t="n">
-        <v>999.1155354553239</v>
+        <v>999.115535455324</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.33148804822966</v>
+        <v>949.400240415884</v>
       </c>
       <c r="C10" t="n">
-        <v>78.33148804822966</v>
+        <v>949.400240415884</v>
       </c>
       <c r="D10" t="n">
-        <v>78.33148804822966</v>
+        <v>793.7671273183987</v>
       </c>
       <c r="E10" t="n">
-        <v>78.33148804822966</v>
+        <v>638.2083151776012</v>
       </c>
       <c r="F10" t="n">
-        <v>78.33148804822966</v>
+        <v>480.8823803905742</v>
       </c>
       <c r="G10" t="n">
-        <v>78.33148804822966</v>
+        <v>312.6283264900197</v>
       </c>
       <c r="H10" t="n">
-        <v>78.33148804822966</v>
+        <v>157.1497754515137</v>
       </c>
       <c r="I10" t="n">
-        <v>78.33148804822966</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="J10" t="n">
-        <v>47.95321787433161</v>
+        <v>47.95321787433171</v>
       </c>
       <c r="K10" t="n">
-        <v>129.7882589842735</v>
+        <v>129.7882589842736</v>
       </c>
       <c r="L10" t="n">
         <v>293.9158988580733</v>
@@ -4989,25 +4989,25 @@
         <v>949.400240415884</v>
       </c>
       <c r="S10" t="n">
-        <v>746.5841565984333</v>
+        <v>949.400240415884</v>
       </c>
       <c r="T10" t="n">
-        <v>510.8651047666674</v>
+        <v>949.400240415884</v>
       </c>
       <c r="U10" t="n">
-        <v>225.4263130085683</v>
+        <v>949.400240415884</v>
       </c>
       <c r="V10" t="n">
-        <v>78.33148804822966</v>
+        <v>949.400240415884</v>
       </c>
       <c r="W10" t="n">
-        <v>78.33148804822966</v>
+        <v>949.400240415884</v>
       </c>
       <c r="X10" t="n">
-        <v>78.33148804822966</v>
+        <v>949.400240415884</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.33148804822966</v>
+        <v>949.400240415884</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1480.983092530629</v>
+        <v>1537.314992064227</v>
       </c>
       <c r="C11" t="n">
-        <v>1182.748272320748</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.334238328372</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E11" t="n">
-        <v>745.6913947321048</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492709</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244624</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5074,19 +5074,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2658.657462271327</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.599108526803</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.087184747048</v>
+        <v>2144.419084280646</v>
       </c>
       <c r="Y11" t="n">
-        <v>1786.537156954838</v>
+        <v>1842.869056488435</v>
       </c>
     </row>
     <row r="12">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1567.33717226171</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1567.33717226171</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>1276.836724765566</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>969.1938811692985</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>647.2401239864646</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>329.0180497616561</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>99.87568061533514</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5308,22 +5308,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155803</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2626.40533514651</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.877391132336</v>
+        <v>2468.953188257884</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.365467352582</v>
+        <v>2174.441264478129</v>
       </c>
       <c r="Y14" t="n">
-        <v>1827.815439560371</v>
+        <v>1872.891236685918</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5597,22 +5597,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5688,13 +5688,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5737,25 +5737,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5770,7 +5770,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5782,16 +5782,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5828,28 +5828,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5940,22 +5940,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5974,34 +5974,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6016,7 +6016,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6025,16 +6025,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,52 +6123,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6177,22 +6177,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1796.362192922096</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C26" t="n">
-        <v>1498.127372712215</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D26" t="n">
-        <v>1207.626925216071</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F26" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G26" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O26" t="n">
         <v>2572.923332933306</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.97820891827</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.97820891827</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="X26" t="n">
-        <v>2403.466285138515</v>
+        <v>2203.33349021336</v>
       </c>
       <c r="Y26" t="n">
-        <v>2101.916257346305</v>
+        <v>1901.783462421149</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D28" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F28" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G28" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H28" t="n">
         <v>100.2728717798493</v>
@@ -6384,7 +6384,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
@@ -6417,19 +6417,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.211875180718</v>
+        <v>1642.069506034397</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970837</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.476607474693</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L29" t="n">
         <v>1059.071548358934</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V29" t="n">
-        <v>2858.790257196482</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W29" t="n">
-        <v>2772.827891176892</v>
+        <v>2249.173598250816</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.315967397137</v>
+        <v>2249.173598250816</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.765939604927</v>
+        <v>1947.623570458605</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,58 +6597,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D31" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
@@ -6660,13 +6660,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6727,10 +6727,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
         <v>2855.219708188068</v>
@@ -6739,13 +6739,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L34" t="n">
-        <v>435.0968109750519</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M34" t="n">
-        <v>621.3883893133159</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N34" t="n">
-        <v>804.578023344525</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O34" t="n">
-        <v>967.282790386233</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P34" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q34" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R34" t="n">
         <v>1098.20216247628</v>
@@ -6888,22 +6888,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404057</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6967,19 +6967,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7086,37 +7086,37 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7131,13 +7131,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
         <v>289.463261197452</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7204,10 +7204,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7216,7 +7216,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7250,28 +7250,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7323,37 +7323,37 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7368,13 +7368,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
         <v>289.463261197452</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1842.407733478086</v>
+        <v>1616.936217819303</v>
       </c>
       <c r="C41" t="n">
-        <v>1701.788477951325</v>
+        <v>1297.232827112674</v>
       </c>
       <c r="D41" t="n">
-        <v>1389.819459958433</v>
+        <v>985.2638091197816</v>
       </c>
       <c r="E41" t="n">
-        <v>1060.708045865418</v>
+        <v>656.1523950267665</v>
       </c>
       <c r="F41" t="n">
-        <v>717.2857181858359</v>
+        <v>312.7300673471846</v>
       </c>
       <c r="G41" t="n">
-        <v>377.5950734642794</v>
+        <v>312.7300673471846</v>
       </c>
       <c r="H41" t="n">
-        <v>126.9841338212104</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403515</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205776</v>
+        <v>2744.280242431226</v>
       </c>
       <c r="W41" t="n">
-        <v>2808.429460964504</v>
+        <v>2446.753318189953</v>
       </c>
       <c r="X41" t="n">
-        <v>2492.448966688001</v>
+        <v>2130.77282391345</v>
       </c>
       <c r="Y41" t="n">
-        <v>2169.430368399043</v>
+        <v>1807.754225624492</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>406.9536625016747</v>
+        <v>462.7775292921795</v>
       </c>
       <c r="C43" t="n">
-        <v>310.2206553581043</v>
+        <v>462.7775292921795</v>
       </c>
       <c r="D43" t="n">
-        <v>228.0596530510594</v>
+        <v>380.6165269851345</v>
       </c>
       <c r="E43" t="n">
-        <v>145.9729517007023</v>
+        <v>298.5298256347773</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>298.5298256347773</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>203.7478825246631</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>121.7414422765974</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7572,13 +7572,13 @@
         <v>104.3554008923886</v>
       </c>
       <c r="K43" t="n">
-        <v>258.200457788041</v>
+        <v>258.2004577880409</v>
       </c>
       <c r="L43" t="n">
-        <v>494.3381134475514</v>
+        <v>494.3381134475512</v>
       </c>
       <c r="M43" t="n">
-        <v>752.6397075715261</v>
+        <v>752.6397075715258</v>
       </c>
       <c r="N43" t="n">
         <v>1007.839357388446</v>
@@ -7587,34 +7587,34 @@
         <v>1242.554140215864</v>
       </c>
       <c r="P43" t="n">
-        <v>1434.440321778154</v>
+        <v>1434.440321778153</v>
       </c>
       <c r="Q43" t="n">
         <v>1509.872533933915</v>
       </c>
       <c r="R43" t="n">
-        <v>1459.443655356933</v>
+        <v>1459.443655356932</v>
       </c>
       <c r="S43" t="n">
-        <v>1459.443655356933</v>
+        <v>1330.099682329922</v>
       </c>
       <c r="T43" t="n">
-        <v>1443.269938856805</v>
+        <v>1330.099682329922</v>
       </c>
       <c r="U43" t="n">
-        <v>1231.303257889146</v>
+        <v>1287.127124679651</v>
       </c>
       <c r="V43" t="n">
-        <v>1038.796023500411</v>
+        <v>1094.619890290915</v>
       </c>
       <c r="W43" t="n">
-        <v>828.9377322220286</v>
+        <v>884.7615990125335</v>
       </c>
       <c r="X43" t="n">
-        <v>668.329520795452</v>
+        <v>724.1533875859568</v>
       </c>
       <c r="Y43" t="n">
-        <v>518.6895704025357</v>
+        <v>574.5134371930404</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2021.491868657954</v>
+        <v>1770.880929014885</v>
       </c>
       <c r="C44" t="n">
-        <v>1701.788477951325</v>
+        <v>1451.177538308256</v>
       </c>
       <c r="D44" t="n">
-        <v>1389.819459958433</v>
+        <v>1139.208520315364</v>
       </c>
       <c r="E44" t="n">
-        <v>1060.708045865418</v>
+        <v>810.0971062223489</v>
       </c>
       <c r="F44" t="n">
-        <v>717.2857181858359</v>
+        <v>466.674778542767</v>
       </c>
       <c r="G44" t="n">
-        <v>377.5950734642794</v>
+        <v>126.9841338212104</v>
       </c>
       <c r="H44" t="n">
         <v>126.9841338212104</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2830.634322162306</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2561.999623656265</v>
       </c>
       <c r="W44" t="n">
-        <v>2808.429460964504</v>
+        <v>2264.472699414992</v>
       </c>
       <c r="X44" t="n">
-        <v>2492.448966688001</v>
+        <v>1948.492205138489</v>
       </c>
       <c r="Y44" t="n">
-        <v>2348.51450357891</v>
+        <v>1948.492205138489</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>643.3643604323364</v>
+        <v>240.9388361980433</v>
       </c>
       <c r="C46" t="n">
-        <v>546.6313532887659</v>
+        <v>144.2058290544728</v>
       </c>
       <c r="D46" t="n">
-        <v>464.470350981721</v>
+        <v>144.2058290544728</v>
       </c>
       <c r="E46" t="n">
-        <v>382.3836496313638</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>298.5298256347771</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>203.747882524663</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>121.7414422765973</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7809,13 +7809,13 @@
         <v>104.3554008923886</v>
       </c>
       <c r="K46" t="n">
-        <v>258.200457788041</v>
+        <v>258.2004577880409</v>
       </c>
       <c r="L46" t="n">
-        <v>494.3381134475514</v>
+        <v>494.3381134475512</v>
       </c>
       <c r="M46" t="n">
-        <v>752.6397075715261</v>
+        <v>752.6397075715258</v>
       </c>
       <c r="N46" t="n">
         <v>1007.839357388446</v>
@@ -7824,34 +7824,34 @@
         <v>1242.554140215864</v>
       </c>
       <c r="P46" t="n">
-        <v>1434.440321778154</v>
+        <v>1434.440321778153</v>
       </c>
       <c r="Q46" t="n">
         <v>1509.872533933915</v>
       </c>
       <c r="R46" t="n">
-        <v>1509.872533933915</v>
+        <v>1459.443655356932</v>
       </c>
       <c r="S46" t="n">
-        <v>1380.528560906905</v>
+        <v>1330.099682329922</v>
       </c>
       <c r="T46" t="n">
-        <v>1218.28161986558</v>
+        <v>1167.852741288596</v>
       </c>
       <c r="U46" t="n">
-        <v>1218.28161986558</v>
+        <v>955.8860603209372</v>
       </c>
       <c r="V46" t="n">
-        <v>1218.28161986558</v>
+        <v>763.3788259322017</v>
       </c>
       <c r="W46" t="n">
-        <v>1065.34843015269</v>
+        <v>553.5205346538196</v>
       </c>
       <c r="X46" t="n">
-        <v>904.7402187261137</v>
+        <v>392.912323227243</v>
       </c>
       <c r="Y46" t="n">
-        <v>755.1002683331974</v>
+        <v>243.2723728343266</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>470.4637632346382</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>89.90975703143043</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8224,16 +8224,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N5" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8297,10 +8297,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>202.8119771871974</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
@@ -8309,10 +8309,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8461,7 +8461,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>332.9236894108032</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>327.6973362314736</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>691.8023454784569</v>
+        <v>691.8023454784583</v>
       </c>
       <c r="N9" t="n">
-        <v>684.7873362833117</v>
+        <v>407.8031497987013</v>
       </c>
       <c r="O9" t="n">
-        <v>561.6513697465498</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>223.122899967847</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,13 +9482,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9722,10 +9722,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>571.8744206036794</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271594</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,25 +10904,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>647.2923877624991</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>709.3350389104421</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4755493687297</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>214.9725083336923</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>5.583483882035942</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>72.79510563304763</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>272.2326524119391</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>31.13871417189256</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>188.1950278476846</v>
+        <v>27.11267262220315</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>134.84258084461</v>
       </c>
       <c r="C41" t="n">
-        <v>177.2932938280687</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>336.293738274341</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>64.21635605592395</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.11102982582401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>148.5282067336416</v>
       </c>
       <c r="U41" t="n">
-        <v>180.4578125872114</v>
+        <v>180.4578125872115</v>
       </c>
       <c r="V41" t="n">
-        <v>265.9483515209809</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>95.76567707213481</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.01528575662091</v>
       </c>
       <c r="G43" t="n">
-        <v>93.83412367901298</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>81.18637584558502</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>59.02609142675695</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>128.0505332967402</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>144.6124922957858</v>
+        <v>160.6244716309124</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>167.3041820842143</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>147.9172452093788</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>248.1048302466384</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.11102982582401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>148.5282067336416</v>
       </c>
       <c r="U44" t="n">
-        <v>180.4578125872114</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>265.9483515209809</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.2932938280687</v>
+        <v>319.788412306069</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>108.3083475519319</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>81.33939228397453</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.01528575662091</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>93.83412367901305</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>81.18637584558509</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>59.02609142675702</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.92458979121287</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>209.8470141579821</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>190.5821620448481</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>56.35585054983781</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>572175.4978468429</v>
+        <v>572175.497846843</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>572175.4978468429</v>
+        <v>572175.497846843</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>541206.5082251307</v>
+        <v>541206.5082251305</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541206.5082251307</v>
+        <v>541206.5082251305</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667229.0589454201</v>
+        <v>667229.05894542</v>
       </c>
       <c r="C2" t="n">
-        <v>667229.0589454197</v>
+        <v>667229.05894542</v>
       </c>
       <c r="D2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="E2" t="n">
         <v>627061.6539279822</v>
       </c>
       <c r="F2" t="n">
-        <v>627061.6539279823</v>
+        <v>627061.6539279824</v>
       </c>
       <c r="G2" t="n">
         <v>667229.0589454195</v>
       </c>
       <c r="H2" t="n">
-        <v>667229.0589454192</v>
+        <v>667229.0589454198</v>
       </c>
       <c r="I2" t="n">
-        <v>667229.0589454195</v>
+        <v>667229.0589454196</v>
       </c>
       <c r="J2" t="n">
-        <v>627061.6539279827</v>
+        <v>627061.6539279828</v>
       </c>
       <c r="K2" t="n">
-        <v>627061.6539279824</v>
+        <v>627061.6539279821</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.0589454189</v>
+        <v>667229.0589454197</v>
       </c>
       <c r="M2" t="n">
-        <v>667229.058945419</v>
+        <v>667229.0589454197</v>
       </c>
       <c r="N2" t="n">
-        <v>667229.0589454195</v>
+        <v>667229.05894542</v>
       </c>
       <c r="O2" t="n">
-        <v>592338.8473824266</v>
+        <v>592338.8473824265</v>
       </c>
       <c r="P2" t="n">
-        <v>592338.8473824266</v>
+        <v>592338.8473824264</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2486.002070764201</v>
+        <v>2486.00207076463</v>
       </c>
       <c r="E3" t="n">
-        <v>128063.3823939185</v>
+        <v>128063.3823939181</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720422</v>
+        <v>200837.4980720423</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>60215.42360931234</v>
+        <v>60215.42360931262</v>
       </c>
       <c r="M3" t="n">
-        <v>44127.51741526841</v>
+        <v>44127.51741526806</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165792.0503172815</v>
       </c>
       <c r="D4" t="n">
-        <v>164447.816149285</v>
+        <v>164447.8161492848</v>
       </c>
       <c r="E4" t="n">
         <v>110143.3843639945</v>
@@ -26438,7 +26438,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
         <v>110143.3843639945</v>
@@ -26453,13 +26453,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="O4" t="n">
-        <v>88665.36197446474</v>
+        <v>88665.36197446469</v>
       </c>
       <c r="P4" t="n">
-        <v>88665.36197446473</v>
+        <v>88665.3619744647</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>70072.04558449201</v>
+        <v>70072.04558449209</v>
       </c>
       <c r="E5" t="n">
         <v>55112.2895089091</v>
@@ -26487,7 +26487,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26499,19 +26499,19 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53325.49666834891</v>
+        <v>53325.4966683489</v>
       </c>
       <c r="P5" t="n">
-        <v>53325.49666834891</v>
+        <v>53325.4966683489</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233655.7453592205</v>
+        <v>233655.7453592203</v>
       </c>
       <c r="C6" t="n">
-        <v>431851.551350965</v>
+        <v>431851.5513509653</v>
       </c>
       <c r="D6" t="n">
-        <v>430223.1951408787</v>
+        <v>430223.1951408784</v>
       </c>
       <c r="E6" t="n">
-        <v>333742.5976611602</v>
+        <v>333634.0371070594</v>
       </c>
       <c r="F6" t="n">
-        <v>461805.9800550787</v>
+        <v>461697.4195009777</v>
       </c>
       <c r="G6" t="n">
-        <v>445216.6287494091</v>
+        <v>445216.628749409</v>
       </c>
       <c r="H6" t="n">
-        <v>474311.5846224231</v>
+        <v>474311.5846224238</v>
       </c>
       <c r="I6" t="n">
-        <v>474311.5846224234</v>
+        <v>474311.5846224236</v>
       </c>
       <c r="J6" t="n">
-        <v>260968.4819830369</v>
+        <v>260859.9214289357</v>
       </c>
       <c r="K6" t="n">
-        <v>461805.9800550789</v>
+        <v>461697.4195009773</v>
       </c>
       <c r="L6" t="n">
-        <v>414096.1610131105</v>
+        <v>414096.161013111</v>
       </c>
       <c r="M6" t="n">
-        <v>430184.0672071545</v>
+        <v>430184.0672071555</v>
       </c>
       <c r="N6" t="n">
-        <v>474311.5846224234</v>
+        <v>474311.5846224238</v>
       </c>
       <c r="O6" t="n">
-        <v>450347.988739613</v>
+        <v>450145.5827624156</v>
       </c>
       <c r="P6" t="n">
-        <v>450347.988739613</v>
+        <v>450145.5827624155</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="P2" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
     </row>
     <row r="3">
@@ -26795,7 +26795,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>599.415223429145</v>
+        <v>599.4152234291464</v>
       </c>
       <c r="E4" t="n">
         <v>776.4890963014441</v>
@@ -26807,7 +26807,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26816,16 +26816,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304847</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.003097159849984</v>
+        <v>8.003097159851366</v>
       </c>
       <c r="E4" t="n">
-        <v>177.073872872299</v>
+        <v>177.0738728722976</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159849984</v>
+        <v>8.003097159851336</v>
       </c>
       <c r="M4" t="n">
-        <v>177.073872872299</v>
+        <v>177.0738728722976</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304847</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159849984</v>
+        <v>8.003097159851366</v>
       </c>
       <c r="M4" t="n">
-        <v>177.073872872299</v>
+        <v>177.0738728722976</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>161.0346134683556</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>37.48407851743582</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>52.14087645792841</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27548,19 +27548,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.130139889772664</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27602,10 +27602,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>86.79352429129221</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>287.2048408895716</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>15.02843630343364</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>29.36348808697889</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27855,13 +27855,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>177.0079598338444</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.6027434220253</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>23.65888910788271</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>117.6956750166487</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28523,13 +28523,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P16" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
         <v>93.99127447431646</v>
@@ -28760,16 +28760,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28982,28 +28982,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>35.71049010668811</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>35.71049010668751</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29219,31 +29219,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>35.71049010668769</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29930,13 +29930,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="L34" t="n">
-        <v>28.01250026485215</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30167,14 +30167,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
@@ -30185,13 +30185,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.01250026485198</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30404,10 +30404,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30425,10 +30425,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="C41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="D41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="E41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="F41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="G41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="H41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="I41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="T41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="U41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="V41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="W41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="X41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="C43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="D43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="E43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="F43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="G43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="H43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="I43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="J43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="K43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="L43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="M43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="N43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="O43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="P43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="R43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="S43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="T43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="U43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="V43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="W43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="X43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="C44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="D44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="E44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="F44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="G44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="H44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="I44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="T44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="U44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="V44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="W44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="X44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="C46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="D46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="E46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="F46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="G46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="H46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="I46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="J46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="K46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="L46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="M46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="N46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="O46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="P46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="R46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="S46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="T46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="U46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="V46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="W46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="X46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.73738968253593</v>
+        <v>72.73738968253586</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>327.4053600554008</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.465299698097082</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34944,16 +34944,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N5" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>113.215041853864</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
@@ -35029,10 +35029,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>183.1986378130759</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>183.1986378130815</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>599.415223429145</v>
+        <v>599.4152234291464</v>
       </c>
       <c r="N9" t="n">
-        <v>599.415223429145</v>
+        <v>322.4310369445346</v>
       </c>
       <c r="O9" t="n">
-        <v>468.9638108576609</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>137.7507871136803</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,13 +35819,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P16" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36056,16 +36056,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453562</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36217,10 +36217,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36296,10 +36296,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.16725411683999</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934977</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36536,10 +36536,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729927</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L34" t="n">
-        <v>193.7979950868721</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37250,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37481,13 +37481,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>149.0995364028101</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>554.9052657131872</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37721,10 +37721,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.66290221037686</v>
+        <v>42.66290221037679</v>
       </c>
       <c r="K43" t="n">
         <v>155.3990473693459</v>
@@ -37946,19 +37946,19 @@
         <v>238.5228845045559</v>
       </c>
       <c r="M43" t="n">
-        <v>260.9107011353279</v>
+        <v>260.9107011353278</v>
       </c>
       <c r="N43" t="n">
         <v>257.7774240574947</v>
       </c>
       <c r="O43" t="n">
-        <v>237.0856392196148</v>
+        <v>237.0856392196147</v>
       </c>
       <c r="P43" t="n">
-        <v>193.8244258204941</v>
+        <v>193.824425820494</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.19415369268842</v>
+        <v>76.19415369268835</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>623.9629260562755</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.66290221037686</v>
+        <v>42.66290221037679</v>
       </c>
       <c r="K46" t="n">
         <v>155.3990473693459</v>
@@ -38183,19 +38183,19 @@
         <v>238.5228845045559</v>
       </c>
       <c r="M46" t="n">
-        <v>260.9107011353279</v>
+        <v>260.9107011353278</v>
       </c>
       <c r="N46" t="n">
         <v>257.7774240574947</v>
       </c>
       <c r="O46" t="n">
-        <v>237.0856392196148</v>
+        <v>237.0856392196147</v>
       </c>
       <c r="P46" t="n">
-        <v>193.8244258204941</v>
+        <v>193.824425820494</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.19415369268842</v>
+        <v>76.19415369268835</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
